--- a/Person_Dataset_Multimap_based_Comparison.xlsx
+++ b/Person_Dataset_Multimap_based_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntelliJ_Workspace\performance-reconciler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C899E49-B652-4323-8169-4AFAA880212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA21BA-6AB3-4542-9586-12EEBAA2F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="JDK8-Memory" sheetId="3" r:id="rId3"/>
     <sheet name="JDK11-Median Time" sheetId="4" r:id="rId4"/>
     <sheet name="JDK11-Memory" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -102,6 +103,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEC700A"/>
+      <color rgb="FF8BA7D9"/>
+      <color rgb="FF6388CB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,6 +587,644 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="663569104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap based Comparison</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11969614909247456"/>
+          <c:y val="0.1713472485768501"/>
+          <c:w val="0.8560534099904179"/>
+          <c:h val="0.66964444909281973"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Memory'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK8-Memory'!$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK8-Memory'!$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1588.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2552-48E6-827D-D02CED0CCAF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Memory'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK8-Memory'!$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK8-Memory'!$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1658.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2552-48E6-827D-D02CED0CCAF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="672155952"/>
+        <c:axId val="672155296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="672155952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672155296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672155296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Used Memory (Mb)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672155952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4363,7 +5009,686 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap based Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11969614909247456"/>
+          <c:y val="0.17863501483679525"/>
+          <c:w val="0.8560534099904179"/>
+          <c:h val="0.66218784966419253"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Median Time'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F3B-4BC0-AA4C-020B162AAA53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Median Time'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F3B-4BC0-AA4C-020B162AAA53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="673581984"/>
+        <c:axId val="673582312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="673581984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673582312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="673582312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673581984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4683,6 +6008,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5186,7 +6551,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5689,7 +7054,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6192,7 +7557,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6695,7 +8060,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7198,7 +8563,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7701,7 +9066,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8204,7 +9569,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9025,6 +11396,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5A98B5-8B20-4B02-BAED-25AC67A7E16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FDE2D5-93C7-4004-80A4-886E93E826A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9607,7 +12059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D90BF67-D205-489A-90CF-F38913B55ADC}">
   <dimension ref="B25:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -9976,4 +12428,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252613F-ED58-48A2-BB61-B78A2A3B24D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Person_Dataset_Multimap_based_Comparison.xlsx
+++ b/Person_Dataset_Multimap_based_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntelliJ_Workspace\performance-reconciler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAA21BA-6AB3-4542-9586-12EEBAA2F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44EAEC-D7D9-4AD2-9BC2-D82DA666A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="JDK8-Memory" sheetId="3" r:id="rId3"/>
     <sheet name="JDK11-Median Time" sheetId="4" r:id="rId4"/>
     <sheet name="JDK11-Memory" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="JDK-8" sheetId="6" r:id="rId6"/>
+    <sheet name="JDK-11" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -105,8 +106,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8BA7D9"/>
       <color rgb="FFEC700A"/>
-      <color rgb="FF8BA7D9"/>
       <color rgb="FF6388CB"/>
     </mruColors>
   </colors>
@@ -708,7 +709,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Multimap based Comparison</a:t>
+              <a:t>Multimap Processing</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -761,7 +762,7 @@
           <c:x val="0.11969614909247456"/>
           <c:y val="0.1713472485768501"/>
           <c:w val="0.8560534099904179"/>
-          <c:h val="0.66964444909281973"/>
+          <c:h val="0.65066911702450858"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1311,6 +1312,4017 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap Processing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11859801928428672"/>
+          <c:y val="0.11718799368088467"/>
+          <c:w val="0.85737402090793702"/>
+          <c:h val="0.6955184038014206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Median Time'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25F8-4803-82D1-9AB030A8EFAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Median Time'!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK8-Median Time'!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1021.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25F8-4803-82D1-9AB030A8EFAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="663569104"/>
+        <c:axId val="663575664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="663569104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663575664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663575664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Median Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663569104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap Processing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Memory'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'JDK8-Memory'!$A$23:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'JDK8-Memory'!$A$23:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'JDK8-Memory'!$B$23:$B$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'JDK8-Memory'!$B$23:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6F3-45C8-B6FE-2EC85A1C1E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK8-Memory'!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'JDK8-Memory'!$A$23:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'JDK8-Memory'!$A$23:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'JDK8-Memory'!$C$23:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'JDK8-Memory'!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6F3-45C8-B6FE-2EC85A1C1E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="672155952"/>
+        <c:axId val="672155296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="672155952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672155296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672155296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Used</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Memory (Mb)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672155952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap Processing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11969614909247456"/>
+          <c:y val="0.17141230068337129"/>
+          <c:w val="0.8560534099904179"/>
+          <c:h val="0.65686400532507472"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Median Time'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-505A-4FF0-ABB6-F024CB27A8AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Median Time'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-505A-4FF0-ABB6-F024CB27A8AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388451848"/>
+        <c:axId val="388451520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388451848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388451520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388451520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388451848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap Processing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11969614909247456"/>
+          <c:y val="0.17141230068337129"/>
+          <c:w val="0.8560534099904179"/>
+          <c:h val="0.65370024931393811"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Memory'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1377.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEC5-447A-8B82-3CAC605422B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Memory'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1564.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEC5-447A-8B82-3CAC605422B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="514601272"/>
+        <c:axId val="514602584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514601272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514602584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514602584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Memory Used (Mb)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514601272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap Processing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11969614909247456"/>
+          <c:y val="0.17141230068337129"/>
+          <c:w val="0.8560534099904179"/>
+          <c:h val="0.65053649330280183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Median Time'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3762-4A8F-8045-C7593017BF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Median Time'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Median Time'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3762-4A8F-8045-C7593017BF15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388451848"/>
+        <c:axId val="388451520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388451848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388451520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388451520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Median Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388451848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Multimap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Processing</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10964323903956449"/>
+          <c:y val="0.11734371045304987"/>
+          <c:w val="0.86610632004332788"/>
+          <c:h val="0.70460508353312323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Memory'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EC700A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22D8-47F5-9227-6A3CCF361643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'JDK11-Memory'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JDK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8BA7D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'JDK11-Memory'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22D8-47F5-9227-6A3CCF361643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="514601272"/>
+        <c:axId val="514602584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514601272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514602584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514602584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Memory Used (Mb)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514601272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5044,7 +9056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Multimap based Comparison</a:t>
+              <a:t>Multimap Processing</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
@@ -5098,7 +9110,7 @@
           <c:x val="0.11969614909247456"/>
           <c:y val="0.17863501483679525"/>
           <c:w val="0.8560534099904179"/>
-          <c:h val="0.66218784966419253"/>
+          <c:h val="0.64319442263449278"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5728,6 +9740,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6552,6 +10804,3024 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11469,6 +18739,239 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8444725E-91E1-4462-B007-421E4648A5A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F718C9E6-B97E-40FD-BF5A-A2DFBBA81986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A63882-3B45-4B13-AABE-0E600D7BBF8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138D3BC8-21CE-4AFD-BCFD-B5D4163CF569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606DA710-B922-419B-8851-5BF518A2282E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>166115</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D313E9FB-BDC6-4C4E-A82C-7D60365A99D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12434,8 +19937,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252613F-ED58-48A2-BB61-B78A2A3B24D2}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B8A951-4776-42BC-9BE5-32BC75520CA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Person_Dataset_Multimap_based_Comparison.xlsx
+++ b/Person_Dataset_Multimap_based_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntelliJ_Workspace\performance-reconciler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44EAEC-D7D9-4AD2-9BC2-D82DA666A1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45FFE2A-0FCA-4F07-9974-E63032B41583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
   </bookViews>
@@ -96,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19935,14 +19938,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252613F-ED58-48A2-BB61-B78A2A3B24D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="21" width="8.83984375" style="1"/>
+  </cols>
   <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19952,12 +19961,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B8A951-4776-42BC-9BE5-32BC75520CA5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="1"/>
+  </cols>
   <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Person_Dataset_Multimap_based_Comparison.xlsx
+++ b/Person_Dataset_Multimap_based_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntelliJ_Workspace\performance-reconciler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45FFE2A-0FCA-4F07-9974-E63032B41583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A32DA4-F432-4BBB-8275-63EBAB73B923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="5" xr2:uid="{01B5B808-35CD-446D-B496-2DBD45D6B974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2106,6 +2106,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4044040572537848E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-95A4-4251-97C2-2BB92B7FF4F1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2165,17 +2187,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'JDK8-Memory'!$A$23:$A$27</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'JDK8-Memory'!$A$23:$A$26</c:f>
+              <c:f>'JDK8-Memory'!$A$23:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2187,23 +2202,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'JDK8-Memory'!$B$23:$B$27</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'JDK8-Memory'!$B$23:$B$26</c:f>
+              <c:f>'JDK8-Memory'!$B$23:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>33.479999999999997</c:v>
                 </c:pt>
@@ -2215,6 +2226,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,6 +2264,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9819818257642032E-2"/>
+                  <c:y val="3.1511395711670935E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-95A4-4251-97C2-2BB92B7FF4F1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2309,17 +2345,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'JDK8-Memory'!$A$23:$A$27</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'JDK8-Memory'!$A$23:$A$26</c:f>
+              <c:f>'JDK8-Memory'!$A$23:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2331,23 +2360,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'JDK8-Memory'!$C$23:$C$27</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'JDK8-Memory'!$C$23:$C$26</c:f>
+              <c:f>'JDK8-Memory'!$C$23:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>28.51</c:v>
                 </c:pt>
@@ -2359,6 +2384,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18436,8 +18464,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
@@ -19659,7 +19687,7 @@
   <dimension ref="A22:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19940,7 +19968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4252613F-ED58-48A2-BB61-B78A2A3B24D2}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:U1048576"/>
     </sheetView>
   </sheetViews>
@@ -19961,7 +19989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B8A951-4776-42BC-9BE5-32BC75520CA5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
